--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14808" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>任意类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>检查规则标识</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -35,210 +31,122 @@
     <t>说明</t>
   </si>
   <si>
+    <t>range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存在性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值范围性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合字段的检查规则只应用于集合中元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>'**'表示上述检查规则</t>
+  </si>
+  <si>
+    <t>集合类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref:namespace.enum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>ref:namespace.class.field</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:namespace.enum.value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>数据列不允许出现重复的内容..</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注:string类型中可能出现不同的空字符串[\t\b\n\r\f]等,均按不同内容处理.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据引用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirPath-文件夹路径,ext-文件扩展名,此项为选填项,不填时,则每条数据内容均要填写扩展名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,3)/(1,3]/[1,3]/[1,3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用开区间闭区间的形式指定数据范围.+和-表示正负无穷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存在性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值范围性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合字段的检查规则只应用于集合中元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>'**'表示上述检查规则</t>
-  </si>
-  <si>
-    <t>集合类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmoty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>notEmpty-指定数据列必须填写数据.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">注:此限制对string类型中的空白符无效.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>notEmpty:trim-其他类型同上,在处理string类型时,数据列中的空白字符均按未填数据处理.</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -264,20 +172,100 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:只能引用表键</t>
+      <t>:field只能引用表结构中的基础类型数据;enum则直接查找枚举定义的结构</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dict.key:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict.value:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:dirPath[:ext]</t>
+    <r>
+      <t>数据列不允许出现重复的内容..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:string类型中可能出现不同的空字符串[\t\b\n\r\f]等,均按不同内容处理.表格主键默认带有该功能</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmoty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty-禁止填写空白数据\t\b\n\r\f.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file:filePath[:ext]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dirPath-文件夹路径,ext-文件扩展名,此项为选填项,不填时,则只检查文件名称,不检查扩展名称,方便不同扩展名文件检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1,3)/(1,3]/[1,3]/[1,3)/(-,+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>value:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>key:**</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏检查调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意类型</t>
+  </si>
+  <si>
+    <t>任意类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro:当前文件中的已定义宏名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏检查功能未知.需要应用程序与宏功能通讯!</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -332,10 +320,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -391,7 +377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -415,18 +401,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -439,7 +429,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -742,331 +737,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" s="11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
+    <row r="9" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="C22" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="D22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3" t="s">
+      <c r="C23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
-      <c r="B27" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>38</v>
+      <c r="D24" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:E14"/>
+  <mergeCells count="20">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A9:A14"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B4:B8"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="E4:E8"/>
-    <mergeCell ref="B9:B14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,98 +55,201 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>enum</t>
+    <t>数据引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>规则功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件存在性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值范围性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmoty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏检查调用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意类型</t>
+  </si>
+  <si>
+    <t>macro:当前文件中的已定义宏名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏检查功能未知.需要应用程序与宏功能通讯!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file=key:dir[:ext] file=value:dir[:ext]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>notEmpty-禁止填写空白数据\t\b\n\r\f.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查字符串数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>dirPath-文件夹路径,工具相对路径,ext-文件扩展名,此项为选填项,不填时,则只检查文件名称,不检查扩展名称,方便不同扩展名文件检查.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查字符串数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>range=(1,3)/(1,3]/[1,3]/[1,3)/(-,+)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>range=key:(1,3)/(1,3]... range=value:(1,3)/(1,3]...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查数值类型数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file=dir[:ext]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmoty=key               notEmoty=value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅支持基础类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合字段的检查规则只应用于集合中元素,所有集合数据均逐条检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=namespace.class.field</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref=key:namespace.class.field  ref=value:namespace.class.field</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否支持多条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标黄部分的功能涉及到表结构的多态性,暂时无法支持Class相关内容检查</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据引用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>规则功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>非空性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件存在性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数值范围性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合类型数据,不再以列为检查对象.直接以当前集合作为列来检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>集合字段的检查规则只应用于集合中元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Key</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>'**'表示上述检查规则</t>
-  </si>
-  <si>
-    <t>集合类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子元素</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:namespace.enum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref:namespace.class.field</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -172,13 +275,69 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:field只能引用表结构中的基础类型数据;enum则直接查找枚举定义的结构</t>
+      <t>:enum数据自动检查.字段引用目标表格数据,仅支持结构最外层基础类型字段数据</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>任意层中,基础类型和集合类型均可使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意层中,仅适用于数值类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任意层中,仅适用于字符串类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询表格整列数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格字段为父类类型,父类中字段可检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格字段为基础类型,可检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用描述的类型只能为基础类型,且只有一层</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整表字段列检查,查询表格整列数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持任意层中,集合中数据是否唯一(检查在集合中的唯一性)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>集合中数据仅支持基础类型检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>数据列不允许出现重复的内容..</t>
+      <t>数据列不允许出现重复的内容.</t>
     </r>
     <r>
       <rPr>
@@ -189,83 +348,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>注:string类型中可能出现不同的空字符串[\t\b\n\r\f]等,均按不同内容处理.表格主键默认带有该功能</t>
+      <t>注:string类型中可能出现不同的空字符串[\t\b\n\r\f]等,均按不同内容处理.表格主键默认带有该功能,dict.key也默认检查.仅支持最外层基础类型数据,集合中数据</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>notEmoty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty-禁止填写空白数据\t\b\n\r\f.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file:filePath[:ext]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dirPath-文件夹路径,ext-文件扩展名,此项为选填项,不填时,则只检查文件名称,不检查扩展名称,方便不同扩展名文件检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(1,3)/(1,3]/[1,3]/[1,3)/(-,+)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>value:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>key:**</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏检查调用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>任意类型</t>
-  </si>
-  <si>
-    <t>任意类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>macro:当前文件中的已定义宏名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宏检查功能未知.需要应用程序与宏功能通讯!</t>
+    <t>最外层基础类型是否唯一,不支持嵌套类,也不支持派生类(不能直接定义表索引)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +361,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +412,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +430,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -377,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -390,13 +503,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -406,31 +513,77 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -737,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -748,13 +901,15 @@
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -763,292 +918,447 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="15" t="s">
+    <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="B8" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="12" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="19" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="27"/>
+      <c r="E24" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="F24" s="28"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="C33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="E34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="E4:E8"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
+  <mergeCells count="30">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="E8:E13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unique</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -104,10 +100,6 @@
   </si>
   <si>
     <t>notEmoty</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notEmpty</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -246,10 +238,6 @@
   </si>
   <si>
     <t>标黄部分的功能涉及到表结构的多态性,暂时无法支持Class相关内容检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -354,6 +342,22 @@
   </si>
   <si>
     <t>最外层基础类型是否唯一,不支持嵌套类,也不支持派生类(不能直接定义表索引)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notEmpty</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique=key                  unique=value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -490,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -543,12 +547,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -565,9 +572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -587,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -892,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -909,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -918,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -929,348 +936,350 @@
     </row>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>11</v>
-      </c>
       <c r="C2" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>50</v>
+      <c r="E2" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="32"/>
       <c r="B3" s="32"/>
       <c r="C3" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="23"/>
+        <v>56</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="32"/>
       <c r="B5" s="32"/>
       <c r="C5" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="24"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="32"/>
       <c r="B6" s="32"/>
       <c r="C6" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="24"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A7" s="32"/>
       <c r="B7" s="32"/>
       <c r="C7" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>39</v>
+      </c>
+      <c r="D7" s="27"/>
       <c r="E7" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" s="23"/>
+        <v>44</v>
+      </c>
+      <c r="F7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="26" t="b">
+        <v>5</v>
+      </c>
+      <c r="D8" s="27" t="b">
         <v>0</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="29"/>
       <c r="F9" s="30"/>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="26"/>
+        <v>7</v>
+      </c>
+      <c r="D10" s="27"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="26"/>
+        <v>8</v>
+      </c>
+      <c r="D11" s="27"/>
       <c r="E11" s="29"/>
       <c r="F11" s="30"/>
       <c r="G11" s="15" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="26"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="27"/>
       <c r="E12" s="29"/>
       <c r="F12" s="30"/>
       <c r="G12" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="29"/>
+        <v>39</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="35" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="30"/>
       <c r="G13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="27" t="b">
+      <c r="D17" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="27" t="s">
-        <v>39</v>
+      <c r="E17" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="28"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="27"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="27" t="b">
+        <v>5</v>
+      </c>
+      <c r="D20" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="11" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1279,47 +1288,47 @@
       <c r="E26" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="A28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="A29" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="A30" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
+      <c r="A32" s="21"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
+      <c r="A33" s="21"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
@@ -1329,6 +1338,21 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
@@ -1344,21 +1368,6 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="E8:E13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -181,23 +181,6 @@
   </si>
   <si>
     <t>range=key:(1,3)/(1,3]... range=value:(1,3)/(1,3]...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注:只检查数值类型数据</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -358,6 +341,23 @@
   </si>
   <si>
     <t>unique=key                  unique=value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查数值类型数据.</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -547,53 +547,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -935,335 +935,335 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="33" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="25" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="24"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>65</v>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="27" t="b">
+      <c r="D8" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>62</v>
+      <c r="E8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="31" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="30"/>
-      <c r="G13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="21" t="b">
+      <c r="D14" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="F14" s="33" t="s">
         <v>30</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="34"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="21"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="34"/>
+        <v>39</v>
+      </c>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21" t="b">
+      <c r="D17" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="28"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="21" t="b">
+      <c r="D20" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="28" t="s">
-        <v>36</v>
+      <c r="F20" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="28"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1288,47 +1288,47 @@
       <c r="E26" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
+      <c r="A28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
+      <c r="A30" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
+      <c r="A32" s="31"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+      <c r="A33" s="31"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
@@ -1338,21 +1338,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
@@ -1368,6 +1353,21 @@
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -130,10 +130,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>file=key:dir[:ext] file=value:dir[:ext]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>notEmpty-禁止填写空白数据\t\b\n\r\f.</t>
     </r>
@@ -151,23 +147,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>dirPath-文件夹路径,工具相对路径,ext-文件扩展名,此项为选填项,不填时,则只检查文件名称,不检查扩展名称,方便不同扩展名文件检查.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注:只检查字符串数据</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>range=(1,3)/(1,3]/[1,3]/[1,3)/(-,+)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -181,10 +160,6 @@
   </si>
   <si>
     <t>range=key:(1,3)/(1,3]... range=value:(1,3)/(1,3]...</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>file=dir[:ext]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -360,12 +335,47 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>file=prefix*.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>file=key:prefix*.ext file=value:prefix*.ext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prefix-路径前缀,路径相对于工具目录,*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-需要被检查的数据内容ext-文件扩展名.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查字符串数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +432,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -494,7 +512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -550,6 +568,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,20 +613,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -900,7 +921,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F24"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -925,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -935,335 +956,335 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="31"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="28"/>
+        <v>34</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="33"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="31"/>
       <c r="E7" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>64</v>
+      <c r="B8" s="26" t="s">
+        <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="26" t="b">
+      <c r="D8" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>61</v>
+      <c r="E8" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
       <c r="G11" s="15" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+        <v>34</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
       <c r="G12" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="26"/>
+        <v>35</v>
+      </c>
+      <c r="D13" s="31"/>
       <c r="E13" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="22"/>
+        <v>63</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>63</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="31" t="b">
+      <c r="D14" s="22" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>30</v>
+      <c r="F14" s="25" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="33"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="31"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="31" t="b">
+      <c r="D17" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>31</v>
+      <c r="E17" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>67</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="24"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>66</v>
+      </c>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="22" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="31" t="b">
+      <c r="D20" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>67</v>
+      <c r="E20" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="24"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1288,47 +1309,47 @@
       <c r="E26" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="A28" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
+      <c r="A30" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
+      <c r="A31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="22"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="22"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
@@ -1338,6 +1359,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B8:B13"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
@@ -1354,20 +1389,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -319,23 +319,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注:只检查数值类型数据.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>file=prefix*.ext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -367,6 +350,23 @@
         <scheme val="minor"/>
       </rPr>
       <t>注:只检查字符串数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>使用开区间闭区间的形式指定数据范围.+和-表示当前类型的大值和最小值.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查数值类型数据.字典检查时,key,value有一个通过则算Ok</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -568,53 +568,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -956,22 +956,22 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="30" t="b">
+      <c r="D2" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>43</v>
       </c>
       <c r="G2" t="s">
@@ -979,82 +979,82 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="33"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="28"/>
       <c r="G3" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="33"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="28"/>
       <c r="G4" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="33"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="28"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="33"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="26"/>
       <c r="E7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>61</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="31" t="b">
+      <c r="D8" s="26" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="22" t="s">
         <v>58</v>
       </c>
       <c r="G8" t="s">
@@ -1062,89 +1062,89 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
       <c r="G9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
       <c r="G10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
       <c r="G11" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
       <c r="G12" s="15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="22"/>
       <c r="G13" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="31" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="22" t="b">
+      <c r="D14" s="31" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="34" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="9" t="s">
@@ -1152,139 +1152,139 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
       <c r="C15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="25"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
       <c r="C16" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="22"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="22" t="b">
+      <c r="D17" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>67</v>
+      <c r="E17" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>66</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="24"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="22"/>
+      <c r="D19" s="31"/>
       <c r="E19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="F19" s="32"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="31" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="22" t="b">
+      <c r="D20" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>64</v>
+      <c r="F20" s="32" t="s">
+        <v>67</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="24"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="24"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="24"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="24"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1309,47 +1309,47 @@
       <c r="E26" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="31"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="31"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
@@ -1359,20 +1359,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B8:B13"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
@@ -1389,6 +1375,20 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -67,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>非空性检查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>file</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -127,23 +123,6 @@
   </si>
   <si>
     <t>dict</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>notEmpty-禁止填写空白数据\t\b\n\r\f.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>注:只检查字符串数据</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -315,10 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>unique=key                  unique=value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>file=prefix*.ext</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -368,6 +343,31 @@
       </rPr>
       <t>注:只检查数值类型数据.字典检查时,key,value有一个通过则算Ok</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[暂不支持]非空性检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>notEmpty-禁止填写空白数据\t\b\n\r\f.该功能太危险,视觉上无法与空内容区分.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>注:只检查字符串数据</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> unique=value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,6 +469,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -568,6 +574,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -597,24 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -920,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -946,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -956,351 +977,353 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="25" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="18" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="28"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="28"/>
+        <v>32</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="26"/>
+        <v>33</v>
+      </c>
+      <c r="D7" s="37"/>
       <c r="E7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>38</v>
+      </c>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>61</v>
+      <c r="B8" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="26" t="b">
+      <c r="D8" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>58</v>
+      <c r="E8" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
       <c r="G11" s="15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="37"/>
+      <c r="E13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="22"/>
+    </row>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="20" t="s">
+      <c r="F16" s="31"/>
+      <c r="G16" s="22"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="31" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="34"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="31" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>66</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+        <v>26</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="29"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="D19" s="25"/>
       <c r="E19" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="25" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="31" t="b">
+      <c r="D20" s="25" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E20" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="17" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="32"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1309,47 +1332,47 @@
       <c r="E26" s="7"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
+      <c r="A28" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
       <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
+      <c r="A29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="A30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
+      <c r="A31" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
+      <c r="A32" s="25"/>
       <c r="E32" s="6"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
+      <c r="A33" s="25"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
@@ -1359,6 +1382,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B8:B13"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
@@ -1375,20 +1412,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Check Rule.xlsx
+++ b/doc/Check Rule.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>适用类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -350,13 +350,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> unique=value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>notEmpty-禁止填写空白数据\t\b\n\r\f.该功能太危险,视觉上无法与空内容区分.</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -367,7 +370,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> unique=value</t>
+    <t>检查规则案例参考Check所有类型.xlsx(AllType.xml)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +378,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,6 +444,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -474,7 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
@@ -583,12 +593,54 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -598,44 +650,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,11 +961,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" style="3" customWidth="1"/>
@@ -956,7 +976,7 @@
     <col min="7" max="7" width="77.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -976,428 +996,423 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:7" ht="16.2" customHeight="1" thickTop="1">
+      <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="36" t="b">
+      <c r="D2" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+    <row r="3" spans="1:7" ht="15.6">
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="31"/>
       <c r="G3" s="16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="31"/>
       <c r="G4" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="39"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+    <row r="7" spans="1:7" ht="28.8">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="39"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="37" t="b">
+      <c r="D8" s="29" t="b">
         <v>0</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="25" t="s">
         <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="29"/>
       <c r="E13" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="F13" s="25"/>
       <c r="G13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:7" s="9" customFormat="1">
+      <c r="A14" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="41" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="27" t="b">
+      <c r="D14" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="31" t="s">
-        <v>66</v>
+      <c r="F14" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:7" s="9" customFormat="1">
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
+    <row r="16" spans="1:7" s="9" customFormat="1" ht="28.8">
+      <c r="A16" s="40"/>
+      <c r="B16" s="41"/>
       <c r="C16" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="31"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="25" t="b">
+      <c r="D17" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="30" t="s">
+      <c r="F17" s="36" t="s">
         <v>63</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:9">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
       <c r="C18" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+    <row r="19" spans="1:9" ht="28.8">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
       <c r="C19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="25"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="F19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" customHeight="1">
+      <c r="A20" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="25" t="b">
+      <c r="D20" s="34" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="29" t="s">
+      <c r="F20" s="35" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:9">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="29"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" ht="28.8">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="25"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="F24" s="35"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="44" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="28" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="11"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:9">
+      <c r="A29" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="10"/>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+    <row r="32" spans="1:9">
+      <c r="A32" s="9"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+    <row r="33" spans="1:5">
+      <c r="A33" s="9"/>
       <c r="C33" s="6"/>
       <c r="E33" s="6"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="7"/>
       <c r="E34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="F8:F13"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E8:E12"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="D20:D24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="E17:E18"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
@@ -1412,6 +1427,20 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D20:D24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D8:D13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
